--- a/seleniumTest/src/main/resources/Practice Form.xlsx
+++ b/seleniumTest/src/main/resources/Practice Form.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav.guleria/git/seleniumTest/seleniumTest/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1ED7E-447A-7840-9EF3-DA120E96CE68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EEDD10A6-C0A4-364D-A225-C558B5BE6F88}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="8580" windowWidth="26440" windowHeight="15440" xr2:uid="{8DDF1720-135F-A64C-B290-8DC9E33E3B1A}"/>
+    <workbookView windowHeight="15440" windowWidth="26440" xWindow="340" xr2:uid="{8DDF1720-135F-A64C-B290-8DC9E33E3B1A}" yWindow="1580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Browser</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Manual Tester</t>
   </si>
   <si>
-    <t>Protractor</t>
-  </si>
-  <si>
     <t>Africa</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Navigation Commands</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
     <t>Test case executed Successfully</t>
   </si>
   <si>
@@ -100,12 +94,22 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>QTP</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Test passed Successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,34 +162,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="15" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -202,10 +197,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -240,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,21 +398,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -434,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -486,27 +481,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755EBB2B-8C0A-C64C-83E3-3D6D79BCC4F4}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755EBB2B-8C0A-C64C-83E3-3D6D79BCC4F4}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="41.5" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="16.5" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.83203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="9.83203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="41.5" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -522,7 +517,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -538,18 +533,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -560,7 +552,7 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>4</v>
       </c>
       <c r="F2" s="3">
@@ -570,25 +562,25 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/seleniumTest/src/main/resources/Practice Form.xlsx
+++ b/seleniumTest/src/main/resources/Practice Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav.guleria/git/seleniumTest/seleniumTest/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EEDD10A6-C0A4-364D-A225-C558B5BE6F88}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{964ECE75-AFEF-C546-9484-86D3B7D43960}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView windowHeight="15440" windowWidth="26440" xWindow="340" xr2:uid="{8DDF1720-135F-A64C-B290-8DC9E33E3B1A}" yWindow="1580"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Browser</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>First Name</t>
   </si>
@@ -87,16 +84,19 @@
     <t>Navigation Commands</t>
   </si>
   <si>
-    <t>Test case executed Successfully</t>
-  </si>
-  <si>
     <t>/src/main/resources/Feb bill.pdf</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>QTP</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>rana</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t/>
@@ -492,19 +492,19 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="16.5" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.83203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="9.83203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="41.5" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="16.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="41.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,10 +514,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -530,18 +530,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -549,36 +546,62 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44257</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44257</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44278</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
